--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Presidio\Pre-Internship\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F35EBF3-D28D-4612-A961-27D82A9A91B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C749B6-FCFE-47F4-A039-ACCFFF2FF657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" xr2:uid="{704E93B1-EAFD-4BFB-8AF4-6AEC4DA7E792}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="83">
   <si>
     <t>Column Name</t>
   </si>
@@ -169,6 +169,111 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>CREATE TABLE employees_task8 (employee_id SERIAL PRIMARY KEY, first_name VARCHAR(50), last_name VARCHAR(50), department VARCHAR(20), salary NUMERIC(8,2), manager_id INTEGER, FOREIGN KEY (manager_id) REFERENCES employees_task8(employee_id));</t>
+  </si>
+  <si>
+    <t>manager_id</t>
+  </si>
+  <si>
+    <t>REFERENCES employees_task8(employee_id)</t>
+  </si>
+  <si>
+    <t>employees_task8</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE products_task10 (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    product_id SERIAL PRIMARY KEY, </t>
+  </si>
+  <si>
+    <t>    product_name VARCHAR(20),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    quantity INTEGER CHECK (quantity &gt;= 0), </t>
+  </si>
+  <si>
+    <t>    price NUMERIC(8,2)</t>
+  </si>
+  <si>
+    <t>products_task10</t>
+  </si>
+  <si>
+    <t>qunatity</t>
+  </si>
+  <si>
+    <t>CHECK (quantity &gt;=0)</t>
+  </si>
+  <si>
+    <t>customers_task10</t>
+  </si>
+  <si>
+    <t>CREATE TABLE customers_task10 (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    customer_id SERIAL PRIMARY KEY, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    customer_name VARCHAR(50), </t>
+  </si>
+  <si>
+    <t>    email VARCHAR(50) UNIQUE CHECK (email LIKE '%@%.%'),</t>
+  </si>
+  <si>
+    <t>    phone NUMERIC(10) UNIQUE CHECK (phone &gt; 1000000000)</t>
+  </si>
+  <si>
+    <t>orders_task10</t>
+  </si>
+  <si>
+    <t>quantity_purchased</t>
+  </si>
+  <si>
+    <t>total_amount</t>
+  </si>
+  <si>
+    <t>NUMERIC(10,2)</t>
+  </si>
+  <si>
+    <t>CHECK (quantity_purchased &gt; 0)</t>
+  </si>
+  <si>
+    <t>REFERENCES customers_task10(customer_id)</t>
+  </si>
+  <si>
+    <t>REFERENCES products_task10(product_id)</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE orders_task10 (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    order_id SERIAL PRIMARY KEY, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    customer_id INTEGER, </t>
+  </si>
+  <si>
+    <t>    product_id INTEGER,</t>
+  </si>
+  <si>
+    <t>    quantity_purchased INTEGER CHECK (quantity_purchased &gt; 0),</t>
+  </si>
+  <si>
+    <t>    total_amount NUMERIC(10,2) NOT NULL,</t>
+  </si>
+  <si>
+    <t>    FOREIGN KEY (customer_id) REFERENCES customers_task10(customer_id),</t>
+  </si>
+  <si>
+    <t>    FOREIGN KEY (product_id) REFERENCES products_task10(product_id)</t>
   </si>
 </sst>
 </file>
@@ -219,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -229,69 +334,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF8EA9DB"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF8EA9DB"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF8EA9DB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF8EA9DB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF8EA9DB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF8EA9DB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF8EA9DB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF8EA9DB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF8EA9DB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF8EA9DB"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF8EA9DB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF8EA9DB"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF8EA9DB"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -299,28 +351,147 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="46">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -344,6 +515,770 @@
           <bgColor rgb="FF4472C4"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FF4472C4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -357,6 +1292,20 @@
         <top style="thin">
           <color rgb="FF8EA9DB"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF8EA9DB"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF8EA9DB"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -373,70 +1322,98 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1B8C2A80-6CE2-4B9D-A131-BD75666055D6}" name="Table2" displayName="Table2" ref="A3:E9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1B8C2A80-6CE2-4B9D-A131-BD75666055D6}" name="Table2" displayName="Table2" ref="A3:E9" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="A3:E9" xr:uid="{1B8C2A80-6CE2-4B9D-A131-BD75666055D6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EAB2B458-FE10-4A11-8F9F-8022B7DC4294}" name="Column Name"/>
-    <tableColumn id="2" xr3:uid="{4D1C0BFF-4659-49F4-8901-A81DFD90818E}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{783AF5E3-4E83-4EB5-802A-3D25BF4A7953}" name="Nullable"/>
-    <tableColumn id="4" xr3:uid="{C5A70262-7393-45DE-9F9C-79876018414D}" name="Key"/>
-    <tableColumn id="5" xr3:uid="{007644BE-84B4-4D28-A00F-7434E4649BE5}" name="Constraints"/>
+    <tableColumn id="1" xr3:uid="{EAB2B458-FE10-4A11-8F9F-8022B7DC4294}" name="Column Name" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{4D1C0BFF-4659-49F4-8901-A81DFD90818E}" name="Datatype" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{783AF5E3-4E83-4EB5-802A-3D25BF4A7953}" name="Nullable" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{C5A70262-7393-45DE-9F9C-79876018414D}" name="Key" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{007644BE-84B4-4D28-A00F-7434E4649BE5}" name="Constraints" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F62E0787-96B1-4757-9C11-9929EE652209}" name="Table1" displayName="Table1" ref="A13:E18" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F62E0787-96B1-4757-9C11-9929EE652209}" name="Table1" displayName="Table1" ref="A13:E18" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A13:E18" xr:uid="{F62E0787-96B1-4757-9C11-9929EE652209}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{991DAECB-5BA9-4B99-A6CF-497C0AFA3E5B}" name="Column Name"/>
-    <tableColumn id="2" xr3:uid="{55CC4099-56E8-467B-AB0E-884F19F89678}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{D9F64383-562F-40D5-9123-417EA39D378C}" name="Nullable"/>
-    <tableColumn id="4" xr3:uid="{00F72C92-2BBF-4701-B7F7-09740E7E0BA8}" name="Key"/>
-    <tableColumn id="5" xr3:uid="{C7C27B34-1E5C-4C1D-A11B-2278B84859D2}" name="Constraints"/>
+    <tableColumn id="1" xr3:uid="{991DAECB-5BA9-4B99-A6CF-497C0AFA3E5B}" name="Column Name" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{55CC4099-56E8-467B-AB0E-884F19F89678}" name="Datatype" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{D9F64383-562F-40D5-9123-417EA39D378C}" name="Nullable" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00F72C92-2BBF-4701-B7F7-09740E7E0BA8}" name="Key" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{C7C27B34-1E5C-4C1D-A11B-2278B84859D2}" name="Constraints" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{270C77FA-83A4-4766-83BD-DC8887AF5788}" name="Table14" displayName="Table14" ref="A23:E27" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{270C77FA-83A4-4766-83BD-DC8887AF5788}" name="Table14" displayName="Table14" ref="A23:E27" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A23:E27" xr:uid="{270C77FA-83A4-4766-83BD-DC8887AF5788}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4CF0C1A0-219B-475F-8372-68CF7855A888}" name="Column Name"/>
-    <tableColumn id="2" xr3:uid="{12AF6B9F-BB0F-4126-8406-AF3D3665D777}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{CAF7A8F5-4A40-4C57-B672-B24DC7219CAE}" name="Nullable"/>
-    <tableColumn id="4" xr3:uid="{4932D249-54D4-402E-8D94-74DE48073BBC}" name="Key"/>
-    <tableColumn id="5" xr3:uid="{4C5B442D-11E9-4F53-B447-1127E34BBE38}" name="Constraints"/>
+    <tableColumn id="1" xr3:uid="{4CF0C1A0-219B-475F-8372-68CF7855A888}" name="Column Name" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{12AF6B9F-BB0F-4126-8406-AF3D3665D777}" name="Datatype" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{CAF7A8F5-4A40-4C57-B672-B24DC7219CAE}" name="Nullable" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{4932D249-54D4-402E-8D94-74DE48073BBC}" name="Key" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{4C5B442D-11E9-4F53-B447-1127E34BBE38}" name="Constraints" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2323EF3E-9D53-424E-A76E-C1C777D2E058}" name="Table1410" displayName="Table1410" ref="A32:E35" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2323EF3E-9D53-424E-A76E-C1C777D2E058}" name="Table1410" displayName="Table1410" ref="A32:E35" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A32:E35" xr:uid="{2323EF3E-9D53-424E-A76E-C1C777D2E058}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C71473E7-39D5-4FEF-8CBB-318303A31BE5}" name="Column Name"/>
-    <tableColumn id="2" xr3:uid="{6280B2D0-1C22-4296-9317-2992AEDA87BD}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{3DBA869B-D87A-4920-A360-911F5BC93E76}" name="Nullable"/>
-    <tableColumn id="4" xr3:uid="{805D7F5D-6420-4C5F-8C4D-3290220F3EA2}" name="Key"/>
-    <tableColumn id="5" xr3:uid="{B7110A10-6BA4-47D9-AF0E-7EEEA3019444}" name="Constraints"/>
+    <tableColumn id="1" xr3:uid="{C71473E7-39D5-4FEF-8CBB-318303A31BE5}" name="Column Name" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{6280B2D0-1C22-4296-9317-2992AEDA87BD}" name="Datatype" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{3DBA869B-D87A-4920-A360-911F5BC93E76}" name="Nullable" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{805D7F5D-6420-4C5F-8C4D-3290220F3EA2}" name="Key" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{B7110A10-6BA4-47D9-AF0E-7EEEA3019444}" name="Constraints" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3BAABA2F-2747-4FA9-A019-B7889E7CAA00}" name="Table10" displayName="Table10" ref="A41:E46" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3BAABA2F-2747-4FA9-A019-B7889E7CAA00}" name="Table10" displayName="Table10" ref="A41:E46" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="45" tableBorderDxfId="44">
   <autoFilter ref="A41:E46" xr:uid="{3BAABA2F-2747-4FA9-A019-B7889E7CAA00}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{13390F29-A7C9-42B4-9020-080AAA5D1016}" name="Column Name"/>
-    <tableColumn id="2" xr3:uid="{7FAD2A22-7E8B-42BE-8057-CE6AD4C3FFAA}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{020FD15E-B362-4E42-832E-6B4E5D0E7935}" name="Nullable"/>
-    <tableColumn id="4" xr3:uid="{DC165154-A8F8-4E21-A9FD-BF34AFF49E0F}" name="Key"/>
-    <tableColumn id="5" xr3:uid="{DBAE5487-B2FF-4C94-9E93-F5BA4F5B7DF4}" name="Constraints"/>
+    <tableColumn id="1" xr3:uid="{13390F29-A7C9-42B4-9020-080AAA5D1016}" name="Column Name" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{7FAD2A22-7E8B-42BE-8057-CE6AD4C3FFAA}" name="Datatype" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{020FD15E-B362-4E42-832E-6B4E5D0E7935}" name="Nullable" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{DC165154-A8F8-4E21-A9FD-BF34AFF49E0F}" name="Key" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{DBAE5487-B2FF-4C94-9E93-F5BA4F5B7DF4}" name="Constraints" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{024471C3-7983-493E-BD84-C65077CF57D6}" name="Table105" displayName="Table105" ref="A52:E59" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="42" tableBorderDxfId="43">
+  <autoFilter ref="A52:E59" xr:uid="{024471C3-7983-493E-BD84-C65077CF57D6}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{11CC3640-78C6-4A95-B29B-504FCBEDCA19}" name="Column Name" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{99FAA0C0-624B-4C6B-AFD9-D8F8DD5E5E0B}" name="Datatype" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{8E9FB293-530D-4126-9F51-58EFC1EFAAAE}" name="Nullable" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{4D517BDB-BDF3-4672-AAD1-F8ACA4560FC8}" name="Key" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D04CEBA8-21A8-4204-9B15-FAA92604F852}" name="Constraints" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{74154995-53FD-412A-8270-3F744CB812E4}" name="Table146" displayName="Table146" ref="A79:E83" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A79:E83" xr:uid="{74154995-53FD-412A-8270-3F744CB812E4}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B949A7CA-AB0B-4C25-B941-E9945EB84D8A}" name="Column Name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4287FA81-A748-4F01-9DE3-FA72F2BDD05A}" name="Datatype" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{61F7B85E-BCA1-4651-8906-523FD3D093A5}" name="Nullable" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{6AAA1C7C-2E4C-45F2-A19D-8F0AB12770A4}" name="Key" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{02BB5040-21DA-4D0F-83B7-8D6A0309EC40}" name="Constraints" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -739,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B489EA0-A7FD-4FD7-A185-37B4FA333303}">
-  <dimension ref="A2:E47"/>
+  <dimension ref="A2:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,7 +1727,7 @@
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -763,76 +1740,93 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -844,87 +1838,99 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -936,82 +1942,90 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -1023,117 +2037,123 @@
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -1143,23 +2163,23 @@
         <v>13</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -1169,26 +2189,537 @@
         <v>13</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
+      <c r="C46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A92:E92"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A22:E22"/>
@@ -1196,12 +2727,14 @@
     <mergeCell ref="A40:E40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="5">
+  <tableParts count="7">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>